--- a/php/thinkphp32框架剖析.xlsx
+++ b/php/thinkphp32框架剖析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21720" windowHeight="6930" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+  <si>
+    <t>require</t>
+  </si>
   <si>
     <t>index.php</t>
+  </si>
+  <si>
+    <t>ThinkPHP.php</t>
+  </si>
+  <si>
+    <t>COER_PATH.'Think'.EXT</t>
+  </si>
+  <si>
+    <t>\Think\Think::start()</t>
+  </si>
+  <si>
+    <t>项目入口</t>
+  </si>
+  <si>
+    <t>框架入口</t>
+  </si>
+  <si>
+    <t>加载框架文件</t>
+  </si>
+  <si>
+    <t>并执行开始</t>
   </si>
   <si>
     <t>记录</t>
@@ -168,6 +192,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>spl_autoload_register</t>
     </r>
     <r>
@@ -184,6 +215,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>register_shutdown_function</t>
     </r>
     <r>
@@ -200,6 +238,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>set_error_handler</t>
     </r>
     <r>
@@ -216,6 +261,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <i/>
+        <sz val="13.5"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>set_exception_handler</t>
     </r>
     <r>
@@ -233,12 +285,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,10 +329,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="13.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -294,9 +420,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,36 +443,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,45 +464,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,27 +477,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13.5"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -442,187 +487,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,11 +681,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,6 +731,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,198 +778,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,9 +947,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -920,29 +962,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1292,17 +1325,56 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="G13"/>
+  <dimension ref="C12:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="27.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="13" spans="7:7">
+    <row r="12" ht="18" spans="4:6">
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
       <c r="G13" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1315,362 +1387,275 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C1:G82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="16.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="8" customWidth="1"/>
-    <col min="6" max="6" width="119.875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="83.25" style="10" customWidth="1"/>
-    <col min="8" max="8" width="9" style="8"/>
-    <col min="9" max="9" width="17.25" style="8" customWidth="1"/>
-    <col min="10" max="10" width="74.625" style="11" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="16.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="119.875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="83.25" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9" style="7"/>
+    <col min="7" max="7" width="17.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="74.625" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:4">
-      <c r="C1" s="8">
+    <row r="1" spans="1:2">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="3:4">
-      <c r="C2" s="8">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="4:4">
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="4:4">
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="3:4">
-      <c r="C3" s="8">
+      <c r="B11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="4:4">
+      <c r="D13" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="4:5">
+      <c r="D22" s="11"/>
+      <c r="E22" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" s="11"/>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="7">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
-      <c r="C4" s="8">
+      <c r="B78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="7">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6">
-      <c r="C7" s="8">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="5:6">
-      <c r="E8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="6:6">
-      <c r="F9" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="6:6">
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="3:6">
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="5:6">
-      <c r="E12" s="12" t="s">
+      <c r="B81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="6:6">
-      <c r="F13" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="6:6">
-      <c r="F14" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="6:6">
-      <c r="F15" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="6:6">
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="6:6">
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="6:6">
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="6:6">
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="6:7">
-      <c r="F22" s="14"/>
-      <c r="G22" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="6:6">
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="6:6">
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="14"/>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="14"/>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" s="14"/>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" s="14"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="14"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="14"/>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="14"/>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="14"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="14"/>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="14"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="14"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="14"/>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="14"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="14"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="14"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="14"/>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="14"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="14"/>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="14"/>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47" s="14"/>
-    </row>
-    <row r="48" spans="6:6">
-      <c r="F48" s="14"/>
-    </row>
-    <row r="49" spans="6:6">
-      <c r="F49" s="14"/>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="6:6">
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="6:6">
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="6:6">
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="6:6">
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="6:6">
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="6:6">
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="6:6">
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="6:6">
-      <c r="F59" s="19"/>
-    </row>
-    <row r="60" spans="6:6">
-      <c r="F60" s="19"/>
-    </row>
-    <row r="61" spans="6:6">
-      <c r="F61" s="19"/>
-    </row>
-    <row r="62" spans="6:6">
-      <c r="F62" s="19"/>
-    </row>
-    <row r="63" spans="6:6">
-      <c r="F63" s="19"/>
-    </row>
-    <row r="64" spans="6:6">
-      <c r="F64" s="19"/>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="19"/>
-    </row>
-    <row r="66" spans="6:6">
-      <c r="F66" s="19"/>
-    </row>
-    <row r="67" spans="6:6">
-      <c r="F67" s="19"/>
-    </row>
-    <row r="68" spans="6:6">
-      <c r="F68" s="19"/>
-    </row>
-    <row r="69" spans="6:6">
-      <c r="F69" s="19"/>
-    </row>
-    <row r="70" spans="6:6">
-      <c r="F70" s="19"/>
-    </row>
-    <row r="71" spans="6:6">
-      <c r="F71" s="19"/>
-    </row>
-    <row r="72" spans="6:6">
-      <c r="F72" s="19"/>
-    </row>
-    <row r="73" spans="6:6">
-      <c r="F73" s="19"/>
-    </row>
-    <row r="74" spans="6:6">
-      <c r="F74" s="19"/>
-    </row>
-    <row r="75" spans="6:6">
-      <c r="F75" s="19"/>
-    </row>
-    <row r="76" spans="6:6">
-      <c r="F76" s="19"/>
-    </row>
-    <row r="77" spans="6:6">
-      <c r="F77" s="19"/>
-    </row>
-    <row r="78" spans="3:6">
-      <c r="C78" s="8">
-        <v>3</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6">
-      <c r="F79" s="19"/>
-    </row>
-    <row r="81" spans="3:6">
-      <c r="C81" s="8">
-        <v>4</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="19"/>
+      <c r="D81" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F19:F49"/>
-    <mergeCell ref="F51:F77"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="D19:D49"/>
+    <mergeCell ref="D51:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D81:D82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1700,7 +1685,7 @@
   <sheetPr/>
   <dimension ref="D3:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1716,52 +1701,52 @@
   <sheetData>
     <row r="3" ht="18" spans="4:5">
       <c r="D3" s="4" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" ht="18" spans="4:5">
-      <c r="D4" s="6"/>
+      <c r="D4" s="4"/>
       <c r="E4" s="5" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" ht="18" spans="4:6">
-      <c r="D5" s="6"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" ht="18" spans="4:6">
-      <c r="D6" s="6"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="18" spans="4:6">
-      <c r="D7" s="6"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" ht="18" spans="4:6">
-      <c r="D8" s="6"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
